--- a/Excel_Advance_MetropoliaAMK/Lectures/lecture 3/Jäätelönmyynti.xlsx
+++ b/Excel_Advance_MetropoliaAMK/Lectures/lecture 3/Jäätelönmyynti.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hebpu\Code_KAMK\K25\MetropoliaAMK\Excel_Advance\Excel_Advance_MetropoliaAMK\Lectures\lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210EF3DD-A634-4453-B2A5-187CA32A84CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF572CE1-610A-4515-ABCC-BE9A4AFC83F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Korrelaatio" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Menot">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Korrelaatio!$A$1:$D$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Korrelaatio!$A$1:$D$27</definedName>
     <definedName name="Tulot">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Jäätelömyynti</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <t>Lämpötila C</t>
@@ -96,14 +93,20 @@
   <si>
     <t>Salo</t>
   </si>
+  <si>
+    <t>päivämäärä</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,27 +206,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,6 +293,5909 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Korrelaatio!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Puikkoja kpl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Korrelaatio!$B$6:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Korrelaatio!$C$6:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A77-40DE-96C9-9A0622112ADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Korrelaatio!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tötteröitä kpl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Korrelaatio!$B$6:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Korrelaatio!$D$6:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A77-40DE-96C9-9A0622112ADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="731351983"/>
+        <c:axId val="731349103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="731351983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731349103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="731349103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731351983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{7090BA7C-272E-4A8A-A65B-CC37C13A5082}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2161631D-952A-46E9-B4B1-C38700162F0F}" type="parTrans" cxnId="{C26740C5-BA9A-481F-9B90-C6C3EBAC2F65}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E18360C-DC7E-4C90-90DF-0BC99B6B0AD1}" type="sibTrans" cxnId="{C26740C5-BA9A-481F-9B90-C6C3EBAC2F65}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}">
+      <dgm:prSet phldrT="[Text]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EE165927-8E2A-4ABC-93A3-C09899700851}" type="parTrans" cxnId="{C73AFC61-FE1E-4B4D-9AE8-6EB95D0E957E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{65C07C83-E010-4B14-B4AC-9EB79F8977D9}" type="sibTrans" cxnId="{C73AFC61-FE1E-4B4D-9AE8-6EB95D0E957E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{360C24FA-F648-405D-97D0-33FD76166B94}" type="parTrans" cxnId="{EEB24705-A984-4259-A072-5D64FEE0E749}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3EC07799-B6C2-4547-A872-3511EDCB9503}" type="sibTrans" cxnId="{EEB24705-A984-4259-A072-5D64FEE0E749}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AE649547-EB18-4645-82EF-FD96EC327F09}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F801390F-9497-44EF-B8C5-91E090A954E6}" type="parTrans" cxnId="{FF6D5739-7A4B-4B7B-83CE-F33486302FAA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{876279D0-418A-4573-9CE0-9FDF9FEA5DF1}" type="sibTrans" cxnId="{FF6D5739-7A4B-4B7B-83CE-F33486302FAA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC280F31-554D-403D-9828-7159FD94EA0D}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{901F6362-5254-4751-B1F7-F03735AEC198}" type="parTrans" cxnId="{95C1E184-8F38-440C-9301-1467AF811D6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2F9483F9-B13A-494A-BF5A-94F5317C6488}" type="sibTrans" cxnId="{95C1E184-8F38-440C-9301-1467AF811D6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2B9A48CB-A710-4BB3-85C6-8D120C12330E}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>b</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9B57F4E0-47ED-43B9-861E-07CA8A6E47CD}" type="parTrans" cxnId="{C704CAC7-629F-4ADE-A95D-8FA76E8F5F15}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C9A5C046-63E9-4CE0-A64F-6A07734CF6C0}" type="sibTrans" cxnId="{C704CAC7-629F-4ADE-A95D-8FA76E8F5F15}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B5FFB722-5D39-46B4-B757-2105C860EE0C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>b</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F9D145C2-3ACA-482D-B1A6-2ED2E48DC250}" type="parTrans" cxnId="{A9AED4F8-29D1-436A-ADF8-163D98558E9B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F8BDCD30-74A0-4A90-806A-CC3CD88A9CB8}" type="sibTrans" cxnId="{A9AED4F8-29D1-436A-ADF8-163D98558E9B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>s</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{42477E40-D3DA-4290-9804-CD87F401A61E}" type="parTrans" cxnId="{2EF5BD4B-909F-4F63-99C6-2BADCE3AE576}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7B19FAD-28E2-4F08-9924-E8A3DDE4B987}" type="sibTrans" cxnId="{2EF5BD4B-909F-4F63-99C6-2BADCE3AE576}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{11337DD9-CA98-4B02-92A0-40DD3236608C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>dd</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9A072EB0-F07A-4999-9A4B-A6E4556EDF16}" type="parTrans" cxnId="{D77972BD-695B-4975-851C-11DB296E6B60}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{17D9C0C3-81B8-4FFA-8258-BBDED91F2E66}" type="sibTrans" cxnId="{D77972BD-695B-4975-851C-11DB296E6B60}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A009333E-B6F9-464C-918B-79D6572A58CF}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>ee</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B42253AC-E92B-4CAA-A43A-58B1F1CC1B65}" type="parTrans" cxnId="{40D4486F-B8D0-474C-817C-175B7C8976EA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{46F4CA8D-7DEA-4591-92F3-3AE5334CC163}" type="sibTrans" cxnId="{40D4486F-B8D0-474C-817C-175B7C8976EA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{73E30049-1969-432A-9727-B13A460DBEBE}" type="pres">
+      <dgm:prSet presAssocID="{7090BA7C-272E-4A8A-A65B-CC37C13A5082}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4E1783B4-FC20-41C4-B88D-26756937A221}" type="pres">
+      <dgm:prSet presAssocID="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{98338E1A-01A1-4EDB-A164-283964B5C7C8}" type="pres">
+      <dgm:prSet presAssocID="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DB2D26BA-4E37-4167-BC69-ED19185F33CB}" type="pres">
+      <dgm:prSet presAssocID="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BDB3FF71-4D5E-4F09-ADC4-88CA6A72D6C8}" type="pres">
+      <dgm:prSet presAssocID="{EE165927-8E2A-4ABC-93A3-C09899700851}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1B50590D-9465-4225-83A0-14CB61496A38}" type="pres">
+      <dgm:prSet presAssocID="{EE165927-8E2A-4ABC-93A3-C09899700851}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{78EE1959-F9EC-4B7D-9F02-48B8B8142548}" type="pres">
+      <dgm:prSet presAssocID="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B75E57F0-095F-450E-AB80-F6FEED163429}" type="pres">
+      <dgm:prSet presAssocID="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3EADD636-48C8-4B4C-9634-C66708357141}" type="pres">
+      <dgm:prSet presAssocID="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D188A952-6CC8-4C2E-973D-60E4EE2E2652}" type="pres">
+      <dgm:prSet presAssocID="{360C24FA-F648-405D-97D0-33FD76166B94}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{875A7389-1662-463B-ACCA-1564C130FF9E}" type="pres">
+      <dgm:prSet presAssocID="{360C24FA-F648-405D-97D0-33FD76166B94}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4FBC7694-435B-4C91-B24A-5BA0C5BC922B}" type="pres">
+      <dgm:prSet presAssocID="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{638608D4-7920-47B4-8DEB-51E08EDFBA31}" type="pres">
+      <dgm:prSet presAssocID="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E974BFED-8186-4A97-8F0B-4E5169BA944D}" type="pres">
+      <dgm:prSet presAssocID="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B4B0D0B4-BC02-4201-B76D-4B4F7DFAEAA6}" type="pres">
+      <dgm:prSet presAssocID="{F9D145C2-3ACA-482D-B1A6-2ED2E48DC250}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{61934AEF-C6C4-4831-804B-442B1502B1BF}" type="pres">
+      <dgm:prSet presAssocID="{F9D145C2-3ACA-482D-B1A6-2ED2E48DC250}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9F6BD1AF-9C74-47A8-817F-D55EA53DB185}" type="pres">
+      <dgm:prSet presAssocID="{B5FFB722-5D39-46B4-B757-2105C860EE0C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AF8FD2D7-8945-4472-AC7A-CFC977D99C59}" type="pres">
+      <dgm:prSet presAssocID="{B5FFB722-5D39-46B4-B757-2105C860EE0C}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E3C7F4A6-3269-434C-9387-D11D21649251}" type="pres">
+      <dgm:prSet presAssocID="{B5FFB722-5D39-46B4-B757-2105C860EE0C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{720764E8-F868-4512-B18D-B13119ADC79A}" type="pres">
+      <dgm:prSet presAssocID="{42477E40-D3DA-4290-9804-CD87F401A61E}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FEAE47B6-2F5E-4A15-9674-D1AB68486A24}" type="pres">
+      <dgm:prSet presAssocID="{42477E40-D3DA-4290-9804-CD87F401A61E}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{18A05CA1-7BDF-43DA-BEEC-C13C20CB0E87}" type="pres">
+      <dgm:prSet presAssocID="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9CDCE090-CD9E-4F56-939C-9E9EEFC32024}" type="pres">
+      <dgm:prSet presAssocID="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D6C731A-EE5B-429D-9FAF-4B93597E6901}" type="pres">
+      <dgm:prSet presAssocID="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{57CFB03D-4259-4B0E-8713-FDC081C5DDA5}" type="pres">
+      <dgm:prSet presAssocID="{9A072EB0-F07A-4999-9A4B-A6E4556EDF16}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{62FB1358-F47E-4CA8-8596-F30C5C1D0E90}" type="pres">
+      <dgm:prSet presAssocID="{9A072EB0-F07A-4999-9A4B-A6E4556EDF16}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D9CAAD0B-4EDE-418F-9F1A-CE4F24BC44D3}" type="pres">
+      <dgm:prSet presAssocID="{11337DD9-CA98-4B02-92A0-40DD3236608C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B36831BD-F9BA-4601-8577-D3632EA610E2}" type="pres">
+      <dgm:prSet presAssocID="{11337DD9-CA98-4B02-92A0-40DD3236608C}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5B356410-61EE-4D19-B8C7-018CA768D6CC}" type="pres">
+      <dgm:prSet presAssocID="{11337DD9-CA98-4B02-92A0-40DD3236608C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E7E09C84-0644-487D-8435-0F619ED5202F}" type="pres">
+      <dgm:prSet presAssocID="{B42253AC-E92B-4CAA-A43A-58B1F1CC1B65}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{25040DD8-B8EB-41B1-A60F-C57CA72D4B55}" type="pres">
+      <dgm:prSet presAssocID="{B42253AC-E92B-4CAA-A43A-58B1F1CC1B65}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CBE584F9-0745-4EAA-B90E-7B909C8B9744}" type="pres">
+      <dgm:prSet presAssocID="{A009333E-B6F9-464C-918B-79D6572A58CF}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1AD18A38-2B65-4A3B-9C3B-ED7A516BB2A1}" type="pres">
+      <dgm:prSet presAssocID="{A009333E-B6F9-464C-918B-79D6572A58CF}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{97B37038-A917-4884-8965-846D0C18765B}" type="pres">
+      <dgm:prSet presAssocID="{A009333E-B6F9-464C-918B-79D6572A58CF}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4135E340-DFA8-45AE-A51C-2BEE5A8C917C}" type="pres">
+      <dgm:prSet presAssocID="{F801390F-9497-44EF-B8C5-91E090A954E6}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8AB8F4F6-CDBB-4009-8188-1607BBBFF432}" type="pres">
+      <dgm:prSet presAssocID="{F801390F-9497-44EF-B8C5-91E090A954E6}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8B738EF4-DDB3-45ED-95FD-0FE9B923F065}" type="pres">
+      <dgm:prSet presAssocID="{AE649547-EB18-4645-82EF-FD96EC327F09}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CD861F10-E7B9-49BA-98A4-C7371DC3E441}" type="pres">
+      <dgm:prSet presAssocID="{AE649547-EB18-4645-82EF-FD96EC327F09}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ABC3674F-8223-4B53-AB7D-3928C22297A2}" type="pres">
+      <dgm:prSet presAssocID="{AE649547-EB18-4645-82EF-FD96EC327F09}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A441F642-DE93-498D-A6AD-3929D5C9C71F}" type="pres">
+      <dgm:prSet presAssocID="{901F6362-5254-4751-B1F7-F03735AEC198}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D73C796B-3ECF-4718-9BF5-EA44C8035075}" type="pres">
+      <dgm:prSet presAssocID="{901F6362-5254-4751-B1F7-F03735AEC198}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F3835FEA-85E9-4995-94A7-164CC99027FB}" type="pres">
+      <dgm:prSet presAssocID="{CC280F31-554D-403D-9828-7159FD94EA0D}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B91CE70C-68D1-475E-A1A6-0FC8537249BB}" type="pres">
+      <dgm:prSet presAssocID="{CC280F31-554D-403D-9828-7159FD94EA0D}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{330C572C-98B6-4025-8294-128AB7B04313}" type="pres">
+      <dgm:prSet presAssocID="{CC280F31-554D-403D-9828-7159FD94EA0D}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1EABAF73-EA15-4ADB-9A59-34FBCA2E3E7B}" type="pres">
+      <dgm:prSet presAssocID="{9B57F4E0-47ED-43B9-861E-07CA8A6E47CD}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F380AE19-DD60-4B07-ACE4-DB1567ACEAE0}" type="pres">
+      <dgm:prSet presAssocID="{9B57F4E0-47ED-43B9-861E-07CA8A6E47CD}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{761BE18B-C9DB-4D54-B964-D24F23F4DF44}" type="pres">
+      <dgm:prSet presAssocID="{2B9A48CB-A710-4BB3-85C6-8D120C12330E}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B0324A67-BA71-4D78-AF1D-8EDC6C304BE2}" type="pres">
+      <dgm:prSet presAssocID="{2B9A48CB-A710-4BB3-85C6-8D120C12330E}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FC50947F-654D-4F70-A20E-555605865544}" type="pres">
+      <dgm:prSet presAssocID="{2B9A48CB-A710-4BB3-85C6-8D120C12330E}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{EEB24705-A984-4259-A072-5D64FEE0E749}" srcId="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}" destId="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}" srcOrd="0" destOrd="0" parTransId="{360C24FA-F648-405D-97D0-33FD76166B94}" sibTransId="{3EC07799-B6C2-4547-A872-3511EDCB9503}"/>
+    <dgm:cxn modelId="{A845DE05-9680-4A3F-A950-D45AB73217BF}" type="presOf" srcId="{2B9A48CB-A710-4BB3-85C6-8D120C12330E}" destId="{B0324A67-BA71-4D78-AF1D-8EDC6C304BE2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CCB5BD0A-D541-4942-8904-F2F34A8AAEEA}" type="presOf" srcId="{A009333E-B6F9-464C-918B-79D6572A58CF}" destId="{1AD18A38-2B65-4A3B-9C3B-ED7A516BB2A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F7E5A90B-7AC1-4B12-94C2-B82B90D5D181}" type="presOf" srcId="{F9D145C2-3ACA-482D-B1A6-2ED2E48DC250}" destId="{B4B0D0B4-BC02-4201-B76D-4B4F7DFAEAA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C3F42812-FC35-4FDF-80FC-8932AEC16E5D}" type="presOf" srcId="{F801390F-9497-44EF-B8C5-91E090A954E6}" destId="{8AB8F4F6-CDBB-4009-8188-1607BBBFF432}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{39533816-17E8-43CF-ACE3-0A487B5BC2D2}" type="presOf" srcId="{B42253AC-E92B-4CAA-A43A-58B1F1CC1B65}" destId="{25040DD8-B8EB-41B1-A60F-C57CA72D4B55}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CA553920-5E0B-491B-9F90-9B94F1E9ADAF}" type="presOf" srcId="{B5FFB722-5D39-46B4-B757-2105C860EE0C}" destId="{AF8FD2D7-8945-4472-AC7A-CFC977D99C59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{31CA6128-244F-4F72-B360-C807C1BDC793}" type="presOf" srcId="{360C24FA-F648-405D-97D0-33FD76166B94}" destId="{D188A952-6CC8-4C2E-973D-60E4EE2E2652}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{58F1FF28-EED2-4CE8-A75B-C414CF5CC780}" type="presOf" srcId="{CC280F31-554D-403D-9828-7159FD94EA0D}" destId="{B91CE70C-68D1-475E-A1A6-0FC8537249BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9500632D-77D2-40D3-8B0E-4FE108D361C2}" type="presOf" srcId="{EE165927-8E2A-4ABC-93A3-C09899700851}" destId="{1B50590D-9465-4225-83A0-14CB61496A38}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FF6D5739-7A4B-4B7B-83CE-F33486302FAA}" srcId="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}" destId="{AE649547-EB18-4645-82EF-FD96EC327F09}" srcOrd="1" destOrd="0" parTransId="{F801390F-9497-44EF-B8C5-91E090A954E6}" sibTransId="{876279D0-418A-4573-9CE0-9FDF9FEA5DF1}"/>
+    <dgm:cxn modelId="{45A9B93A-11B1-42A8-8D11-491C322F06BE}" type="presOf" srcId="{EE165927-8E2A-4ABC-93A3-C09899700851}" destId="{BDB3FF71-4D5E-4F09-ADC4-88CA6A72D6C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{86150E3F-08F7-49D9-9059-FF493BA10CB9}" type="presOf" srcId="{AE649547-EB18-4645-82EF-FD96EC327F09}" destId="{CD861F10-E7B9-49BA-98A4-C7371DC3E441}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C73AFC61-FE1E-4B4D-9AE8-6EB95D0E957E}" srcId="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}" destId="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}" srcOrd="0" destOrd="0" parTransId="{EE165927-8E2A-4ABC-93A3-C09899700851}" sibTransId="{65C07C83-E010-4B14-B4AC-9EB79F8977D9}"/>
+    <dgm:cxn modelId="{03255B48-A6D7-4251-8201-26418B6AD9E4}" type="presOf" srcId="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}" destId="{9CDCE090-CD9E-4F56-939C-9E9EEFC32024}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2EF5BD4B-909F-4F63-99C6-2BADCE3AE576}" srcId="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}" destId="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}" srcOrd="1" destOrd="0" parTransId="{42477E40-D3DA-4290-9804-CD87F401A61E}" sibTransId="{D7B19FAD-28E2-4F08-9924-E8A3DDE4B987}"/>
+    <dgm:cxn modelId="{40D4486F-B8D0-474C-817C-175B7C8976EA}" srcId="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}" destId="{A009333E-B6F9-464C-918B-79D6572A58CF}" srcOrd="1" destOrd="0" parTransId="{B42253AC-E92B-4CAA-A43A-58B1F1CC1B65}" sibTransId="{46F4CA8D-7DEA-4591-92F3-3AE5334CC163}"/>
+    <dgm:cxn modelId="{BB766A79-C7B8-49E6-BD32-B8E1C4734583}" type="presOf" srcId="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}" destId="{98338E1A-01A1-4EDB-A164-283964B5C7C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D7517D82-BBCE-4B22-91DF-C59027AD0E9B}" type="presOf" srcId="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}" destId="{638608D4-7920-47B4-8DEB-51E08EDFBA31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{95C1E184-8F38-440C-9301-1467AF811D6E}" srcId="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}" destId="{CC280F31-554D-403D-9828-7159FD94EA0D}" srcOrd="1" destOrd="0" parTransId="{901F6362-5254-4751-B1F7-F03735AEC198}" sibTransId="{2F9483F9-B13A-494A-BF5A-94F5317C6488}"/>
+    <dgm:cxn modelId="{6427C185-1273-4314-A167-43F0333E5345}" type="presOf" srcId="{9B57F4E0-47ED-43B9-861E-07CA8A6E47CD}" destId="{F380AE19-DD60-4B07-ACE4-DB1567ACEAE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{87A6678F-7D36-4BD8-8CE0-872CDF83111C}" type="presOf" srcId="{901F6362-5254-4751-B1F7-F03735AEC198}" destId="{A441F642-DE93-498D-A6AD-3929D5C9C71F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EEEF2E96-947B-4CE2-A6A0-E33648116C9D}" type="presOf" srcId="{901F6362-5254-4751-B1F7-F03735AEC198}" destId="{D73C796B-3ECF-4718-9BF5-EA44C8035075}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9605DE9B-FA9C-440F-9CEF-6431D5DC25BF}" type="presOf" srcId="{7090BA7C-272E-4A8A-A65B-CC37C13A5082}" destId="{73E30049-1969-432A-9727-B13A460DBEBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A3CCC59C-7A51-46B1-B55F-BC5A3156595A}" type="presOf" srcId="{11337DD9-CA98-4B02-92A0-40DD3236608C}" destId="{B36831BD-F9BA-4601-8577-D3632EA610E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CA885B9F-7B54-4FBE-B73E-F94BCE1F570E}" type="presOf" srcId="{360C24FA-F648-405D-97D0-33FD76166B94}" destId="{875A7389-1662-463B-ACCA-1564C130FF9E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{335BC0A2-308D-4098-96F2-FA9C94265BFA}" type="presOf" srcId="{F801390F-9497-44EF-B8C5-91E090A954E6}" destId="{4135E340-DFA8-45AE-A51C-2BEE5A8C917C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AB32AFB0-36C2-4906-9DB1-99061811D5F0}" type="presOf" srcId="{4ABEE339-8651-4FC7-82B2-EE55D62ED30C}" destId="{B75E57F0-095F-450E-AB80-F6FEED163429}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A4C0E8B3-425E-4606-9812-37A80F253DC8}" type="presOf" srcId="{9B57F4E0-47ED-43B9-861E-07CA8A6E47CD}" destId="{1EABAF73-EA15-4ADB-9A59-34FBCA2E3E7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D77972BD-695B-4975-851C-11DB296E6B60}" srcId="{FF1CE1A0-CA70-4D1C-8BE4-47959143899F}" destId="{11337DD9-CA98-4B02-92A0-40DD3236608C}" srcOrd="0" destOrd="0" parTransId="{9A072EB0-F07A-4999-9A4B-A6E4556EDF16}" sibTransId="{17D9C0C3-81B8-4FFA-8258-BBDED91F2E66}"/>
+    <dgm:cxn modelId="{E48497C0-43DA-4C3A-8D02-693729A508FD}" type="presOf" srcId="{9A072EB0-F07A-4999-9A4B-A6E4556EDF16}" destId="{57CFB03D-4259-4B0E-8713-FDC081C5DDA5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EBF8B8C3-D3C9-4EFC-9940-C2C47F0E5D0F}" type="presOf" srcId="{F9D145C2-3ACA-482D-B1A6-2ED2E48DC250}" destId="{61934AEF-C6C4-4831-804B-442B1502B1BF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C26740C5-BA9A-481F-9B90-C6C3EBAC2F65}" srcId="{7090BA7C-272E-4A8A-A65B-CC37C13A5082}" destId="{56BC34F5-BF14-4CC0-A0F1-176B19A9D5EC}" srcOrd="0" destOrd="0" parTransId="{2161631D-952A-46E9-B4B1-C38700162F0F}" sibTransId="{4E18360C-DC7E-4C90-90DF-0BC99B6B0AD1}"/>
+    <dgm:cxn modelId="{DBDF41C6-6DFB-45AE-95A0-8ACBC942F4E7}" type="presOf" srcId="{42477E40-D3DA-4290-9804-CD87F401A61E}" destId="{720764E8-F868-4512-B18D-B13119ADC79A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C704CAC7-629F-4ADE-A95D-8FA76E8F5F15}" srcId="{CC280F31-554D-403D-9828-7159FD94EA0D}" destId="{2B9A48CB-A710-4BB3-85C6-8D120C12330E}" srcOrd="0" destOrd="0" parTransId="{9B57F4E0-47ED-43B9-861E-07CA8A6E47CD}" sibTransId="{C9A5C046-63E9-4CE0-A64F-6A07734CF6C0}"/>
+    <dgm:cxn modelId="{9E252ED5-35ED-4560-897D-57AF2E2D1BE5}" type="presOf" srcId="{9A072EB0-F07A-4999-9A4B-A6E4556EDF16}" destId="{62FB1358-F47E-4CA8-8596-F30C5C1D0E90}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BCE925DC-FD09-4CB5-A0F8-E11579FAD654}" type="presOf" srcId="{B42253AC-E92B-4CAA-A43A-58B1F1CC1B65}" destId="{E7E09C84-0644-487D-8435-0F619ED5202F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{240360E9-AFE3-49A8-BA34-904CC1D94A26}" type="presOf" srcId="{42477E40-D3DA-4290-9804-CD87F401A61E}" destId="{FEAE47B6-2F5E-4A15-9674-D1AB68486A24}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A9AED4F8-29D1-436A-ADF8-163D98558E9B}" srcId="{36FFB932-CFED-46DF-9E7A-17A1D189B79D}" destId="{B5FFB722-5D39-46B4-B757-2105C860EE0C}" srcOrd="0" destOrd="0" parTransId="{F9D145C2-3ACA-482D-B1A6-2ED2E48DC250}" sibTransId="{F8BDCD30-74A0-4A90-806A-CC3CD88A9CB8}"/>
+    <dgm:cxn modelId="{834DC4F5-CD9F-413C-AD79-3E2CB9DA919D}" type="presParOf" srcId="{73E30049-1969-432A-9727-B13A460DBEBE}" destId="{4E1783B4-FC20-41C4-B88D-26756937A221}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B6B10DCD-5698-4B59-B3A3-004A2EC8BDC9}" type="presParOf" srcId="{4E1783B4-FC20-41C4-B88D-26756937A221}" destId="{98338E1A-01A1-4EDB-A164-283964B5C7C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8DD31F6F-0657-4693-BF3B-99EF6A57B699}" type="presParOf" srcId="{4E1783B4-FC20-41C4-B88D-26756937A221}" destId="{DB2D26BA-4E37-4167-BC69-ED19185F33CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{28F8BA0A-EDE9-4BEC-B56C-9B10AEAF6602}" type="presParOf" srcId="{DB2D26BA-4E37-4167-BC69-ED19185F33CB}" destId="{BDB3FF71-4D5E-4F09-ADC4-88CA6A72D6C8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AFB36069-B674-4A9E-B9ED-7D15548242A9}" type="presParOf" srcId="{BDB3FF71-4D5E-4F09-ADC4-88CA6A72D6C8}" destId="{1B50590D-9465-4225-83A0-14CB61496A38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{112C1251-8FAE-4BE3-8613-3ACFAEB99B5D}" type="presParOf" srcId="{DB2D26BA-4E37-4167-BC69-ED19185F33CB}" destId="{78EE1959-F9EC-4B7D-9F02-48B8B8142548}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FC1770EA-7657-4090-AE38-18849C825549}" type="presParOf" srcId="{78EE1959-F9EC-4B7D-9F02-48B8B8142548}" destId="{B75E57F0-095F-450E-AB80-F6FEED163429}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F8F1236B-CAAA-4909-99A9-889A7DEB25AE}" type="presParOf" srcId="{78EE1959-F9EC-4B7D-9F02-48B8B8142548}" destId="{3EADD636-48C8-4B4C-9634-C66708357141}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{988ED73D-102E-4082-A080-9555DB7AE37F}" type="presParOf" srcId="{3EADD636-48C8-4B4C-9634-C66708357141}" destId="{D188A952-6CC8-4C2E-973D-60E4EE2E2652}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{02E2996C-37C5-4730-B15A-BCCF45289C65}" type="presParOf" srcId="{D188A952-6CC8-4C2E-973D-60E4EE2E2652}" destId="{875A7389-1662-463B-ACCA-1564C130FF9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3161C5AB-671E-4B83-B0BF-3CA740EDBA14}" type="presParOf" srcId="{3EADD636-48C8-4B4C-9634-C66708357141}" destId="{4FBC7694-435B-4C91-B24A-5BA0C5BC922B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{75A42263-0560-4528-AFBE-3628AE43A5BD}" type="presParOf" srcId="{4FBC7694-435B-4C91-B24A-5BA0C5BC922B}" destId="{638608D4-7920-47B4-8DEB-51E08EDFBA31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{88C5BB3B-33FE-4CEA-8971-648D511D220A}" type="presParOf" srcId="{4FBC7694-435B-4C91-B24A-5BA0C5BC922B}" destId="{E974BFED-8186-4A97-8F0B-4E5169BA944D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{407CE533-2D3F-4BAA-B045-A48FFBF8EF2F}" type="presParOf" srcId="{E974BFED-8186-4A97-8F0B-4E5169BA944D}" destId="{B4B0D0B4-BC02-4201-B76D-4B4F7DFAEAA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DE2AA0DB-46CB-49D6-BB89-1CBF33B54F9E}" type="presParOf" srcId="{B4B0D0B4-BC02-4201-B76D-4B4F7DFAEAA6}" destId="{61934AEF-C6C4-4831-804B-442B1502B1BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F3190354-E3BB-4E38-B9E0-CD76089D6B77}" type="presParOf" srcId="{E974BFED-8186-4A97-8F0B-4E5169BA944D}" destId="{9F6BD1AF-9C74-47A8-817F-D55EA53DB185}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7EF28ABF-64A8-4301-B74B-4CB39B78C38C}" type="presParOf" srcId="{9F6BD1AF-9C74-47A8-817F-D55EA53DB185}" destId="{AF8FD2D7-8945-4472-AC7A-CFC977D99C59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B3E5892A-5C4D-43F7-B905-7A61F42165E8}" type="presParOf" srcId="{9F6BD1AF-9C74-47A8-817F-D55EA53DB185}" destId="{E3C7F4A6-3269-434C-9387-D11D21649251}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DB1C9907-F310-4AF1-914E-08E733B73BDB}" type="presParOf" srcId="{E974BFED-8186-4A97-8F0B-4E5169BA944D}" destId="{720764E8-F868-4512-B18D-B13119ADC79A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6B6C5A30-9718-41AD-90C0-43184E049E4E}" type="presParOf" srcId="{720764E8-F868-4512-B18D-B13119ADC79A}" destId="{FEAE47B6-2F5E-4A15-9674-D1AB68486A24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5B100A5F-155C-43DC-9D98-AAE69AB2E3BF}" type="presParOf" srcId="{E974BFED-8186-4A97-8F0B-4E5169BA944D}" destId="{18A05CA1-7BDF-43DA-BEEC-C13C20CB0E87}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F9926600-1400-471C-AFB1-72DFA905DE05}" type="presParOf" srcId="{18A05CA1-7BDF-43DA-BEEC-C13C20CB0E87}" destId="{9CDCE090-CD9E-4F56-939C-9E9EEFC32024}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{88D37467-9B35-4A15-9285-8FFC950B9C2C}" type="presParOf" srcId="{18A05CA1-7BDF-43DA-BEEC-C13C20CB0E87}" destId="{8D6C731A-EE5B-429D-9FAF-4B93597E6901}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{43C57FC7-8953-48AB-91C8-78BBA5C97DAF}" type="presParOf" srcId="{8D6C731A-EE5B-429D-9FAF-4B93597E6901}" destId="{57CFB03D-4259-4B0E-8713-FDC081C5DDA5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{194384A7-685A-470A-B94C-E9E6C7D6B37B}" type="presParOf" srcId="{57CFB03D-4259-4B0E-8713-FDC081C5DDA5}" destId="{62FB1358-F47E-4CA8-8596-F30C5C1D0E90}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{92D0FD46-6137-49CB-AF2F-CFF4BC988F70}" type="presParOf" srcId="{8D6C731A-EE5B-429D-9FAF-4B93597E6901}" destId="{D9CAAD0B-4EDE-418F-9F1A-CE4F24BC44D3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AD7CA87B-D67A-4C41-B634-180814D41E06}" type="presParOf" srcId="{D9CAAD0B-4EDE-418F-9F1A-CE4F24BC44D3}" destId="{B36831BD-F9BA-4601-8577-D3632EA610E2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2E783761-EEE2-48E7-8BF3-5A048C54891E}" type="presParOf" srcId="{D9CAAD0B-4EDE-418F-9F1A-CE4F24BC44D3}" destId="{5B356410-61EE-4D19-B8C7-018CA768D6CC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2AC01591-C1FC-47EE-9A31-2789452B9668}" type="presParOf" srcId="{8D6C731A-EE5B-429D-9FAF-4B93597E6901}" destId="{E7E09C84-0644-487D-8435-0F619ED5202F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DF8984B1-B1BA-482B-81F1-432DC8FA014A}" type="presParOf" srcId="{E7E09C84-0644-487D-8435-0F619ED5202F}" destId="{25040DD8-B8EB-41B1-A60F-C57CA72D4B55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{95DC1028-98CA-442E-B42F-7E888CF59A33}" type="presParOf" srcId="{8D6C731A-EE5B-429D-9FAF-4B93597E6901}" destId="{CBE584F9-0745-4EAA-B90E-7B909C8B9744}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{32F395EA-7B1F-479F-9A5C-F70521122A70}" type="presParOf" srcId="{CBE584F9-0745-4EAA-B90E-7B909C8B9744}" destId="{1AD18A38-2B65-4A3B-9C3B-ED7A516BB2A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{338D7C2A-DB70-46C0-8D6A-88B4EE0D1897}" type="presParOf" srcId="{CBE584F9-0745-4EAA-B90E-7B909C8B9744}" destId="{97B37038-A917-4884-8965-846D0C18765B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{084E08A2-0063-4261-8DFA-B79BB3D93429}" type="presParOf" srcId="{3EADD636-48C8-4B4C-9634-C66708357141}" destId="{4135E340-DFA8-45AE-A51C-2BEE5A8C917C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E154250E-9EAB-4CEC-A786-94F7A1A19B0A}" type="presParOf" srcId="{4135E340-DFA8-45AE-A51C-2BEE5A8C917C}" destId="{8AB8F4F6-CDBB-4009-8188-1607BBBFF432}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{902E1AA1-59CF-46E9-8FA4-DE54AE0B98CA}" type="presParOf" srcId="{3EADD636-48C8-4B4C-9634-C66708357141}" destId="{8B738EF4-DDB3-45ED-95FD-0FE9B923F065}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{50F641F6-A149-4E50-B0EB-37A915512E56}" type="presParOf" srcId="{8B738EF4-DDB3-45ED-95FD-0FE9B923F065}" destId="{CD861F10-E7B9-49BA-98A4-C7371DC3E441}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F9FA9AEC-ABED-4503-922D-2F91CBB43FE5}" type="presParOf" srcId="{8B738EF4-DDB3-45ED-95FD-0FE9B923F065}" destId="{ABC3674F-8223-4B53-AB7D-3928C22297A2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{37A629CC-E66E-488A-8E61-5CF37B3C7DF0}" type="presParOf" srcId="{DB2D26BA-4E37-4167-BC69-ED19185F33CB}" destId="{A441F642-DE93-498D-A6AD-3929D5C9C71F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5C6088F0-ADAF-4B12-872F-ED8CE4CBE348}" type="presParOf" srcId="{A441F642-DE93-498D-A6AD-3929D5C9C71F}" destId="{D73C796B-3ECF-4718-9BF5-EA44C8035075}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AF4E211E-BC34-4BF4-A61C-EAF71B6E7710}" type="presParOf" srcId="{DB2D26BA-4E37-4167-BC69-ED19185F33CB}" destId="{F3835FEA-85E9-4995-94A7-164CC99027FB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D96B891A-6C3F-4A71-9CD7-09C480096BB5}" type="presParOf" srcId="{F3835FEA-85E9-4995-94A7-164CC99027FB}" destId="{B91CE70C-68D1-475E-A1A6-0FC8537249BB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{55048C03-8DF3-44F6-9F5B-B87D7E8368AB}" type="presParOf" srcId="{F3835FEA-85E9-4995-94A7-164CC99027FB}" destId="{330C572C-98B6-4025-8294-128AB7B04313}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E4413474-1579-4D4D-9211-D1F9D74B6FB7}" type="presParOf" srcId="{330C572C-98B6-4025-8294-128AB7B04313}" destId="{1EABAF73-EA15-4ADB-9A59-34FBCA2E3E7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{62CA4729-237C-48E4-9584-9BF71AA70024}" type="presParOf" srcId="{1EABAF73-EA15-4ADB-9A59-34FBCA2E3E7B}" destId="{F380AE19-DD60-4B07-ACE4-DB1567ACEAE0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{37910D97-4BB7-4B06-8D65-16E0B945DB9A}" type="presParOf" srcId="{330C572C-98B6-4025-8294-128AB7B04313}" destId="{761BE18B-C9DB-4D54-B964-D24F23F4DF44}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5F72EE4D-020A-4DF9-86CC-9D06B15FD788}" type="presParOf" srcId="{761BE18B-C9DB-4D54-B964-D24F23F4DF44}" destId="{B0324A67-BA71-4D78-AF1D-8EDC6C304BE2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5287CD92-93B7-4FB3-BA86-230F32BB2E75}" type="presParOf" srcId="{761BE18B-C9DB-4D54-B964-D24F23F4DF44}" destId="{FC50947F-654D-4F70-A20E-555605865544}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{98338E1A-01A1-4EDB-A164-283964B5C7C8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3363" y="1409272"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="18075" y="1423984"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BDB3FF71-4D5E-4F09-ADC4-88CA6A72D6C8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="18770822">
+          <a:off x="913422" y="1427325"/>
+          <a:ext cx="590897" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="590897" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1194098" y="1429032"/>
+        <a:ext cx="29544" cy="29544"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B75E57F0-095F-450E-AB80-F6FEED163429}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1409789" y="976042"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1424501" y="990754"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D188A952-6CC8-4C2E-973D-60E4EE2E2652}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="2367865" y="1066300"/>
+          <a:ext cx="494862" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="494862" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2602925" y="1070408"/>
+        <a:ext cx="24743" cy="24743"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{638608D4-7920-47B4-8DEB-51E08EDFBA31}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2816215" y="687223"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2830927" y="701935"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B4B0D0B4-BC02-4201-B76D-4B4F7DFAEAA6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="3774291" y="777481"/>
+          <a:ext cx="494862" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="494862" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4009351" y="781589"/>
+        <a:ext cx="24743" cy="24743"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AF8FD2D7-8945-4472-AC7A-CFC977D99C59}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4222640" y="398403"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>b</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4237352" y="413115"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{720764E8-F868-4512-B18D-B13119ADC79A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="3774291" y="1066300"/>
+          <a:ext cx="494862" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="494862" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4009351" y="1070408"/>
+        <a:ext cx="24743" cy="24743"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9CDCE090-CD9E-4F56-939C-9E9EEFC32024}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4222640" y="976042"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>s</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4237352" y="990754"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{57CFB03D-4259-4B0E-8713-FDC081C5DDA5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="5180717" y="1066300"/>
+          <a:ext cx="494862" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="494862" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5415777" y="1070408"/>
+        <a:ext cx="24743" cy="24743"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B36831BD-F9BA-4601-8577-D3632EA610E2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5629066" y="687223"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>dd</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5643778" y="701935"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E7E09C84-0644-487D-8435-0F619ED5202F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="5180717" y="1355120"/>
+          <a:ext cx="494862" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="494862" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5415777" y="1359228"/>
+        <a:ext cx="24743" cy="24743"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1AD18A38-2B65-4A3B-9C3B-ED7A516BB2A1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5629066" y="1264862"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>ee</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5643778" y="1279574"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4135E340-DFA8-45AE-A51C-2BEE5A8C917C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="2367865" y="1355120"/>
+          <a:ext cx="494862" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="494862" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2602925" y="1359228"/>
+        <a:ext cx="24743" cy="24743"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CD861F10-E7B9-49BA-98A4-C7371DC3E441}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2816215" y="1264862"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2830927" y="1279574"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A441F642-DE93-498D-A6AD-3929D5C9C71F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2829178">
+          <a:off x="913422" y="1860554"/>
+          <a:ext cx="590897" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="590897" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1194098" y="1862261"/>
+        <a:ext cx="29544" cy="29544"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B91CE70C-68D1-475E-A1A6-0FC8537249BB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1409789" y="1842501"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1424501" y="1857213"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1EABAF73-EA15-4ADB-9A59-34FBCA2E3E7B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2414379" y="2077169"/>
+          <a:ext cx="401835" cy="32958"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="16479"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="401835" y="16479"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2605251" y="2083603"/>
+        <a:ext cx="20091" cy="20091"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B0324A67-BA71-4D78-AF1D-8EDC6C304BE2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2816215" y="1842501"/>
+          <a:ext cx="1004589" cy="502294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="19685" tIns="19685" rIns="19685" bIns="19685" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1377950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="3100" kern="1200"/>
+            <a:t>b</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2830927" y="1857213"/>
+        <a:ext cx="975165" cy="472870"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10300"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="dk1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98DDB88-B6F6-DDB5-A829-CB35B91DDDE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68862039-1946-F3F9-5840-AFD63E4CB3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A128B91A-C091-4D01-B33C-9AE872C604DD}" name="Table1" displayName="Table1" ref="A5:E22" totalsRowCount="1" headerRowDxfId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E21">
+    <sortCondition ref="B6:B21"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9800F982-C3B2-4678-BE61-F5BEDE0A513F}" name="päivämäärä" totalsRowLabel="Total" dataDxfId="3" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{202806CB-96BC-4D0F-B62B-754E9D933C5E}" name="Lämpötila C°" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Lämpötila C°],20)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8550EA94-8C18-4D61-9F71-263C8E7A9AF2}" name="Puikkoja kpl"/>
+    <tableColumn id="4" xr3:uid="{FF6A4676-3A5B-4F8C-99E9-0E7FE3DFD93E}" name="Tötteröitä kpl" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{637105F5-8D3F-42F9-93AF-58830ADA3BA6}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,70 +6523,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Taul1"/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="1" max="4" width="25.77734375" customWidth="1"/>
     <col min="5" max="7" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+    <row r="1" spans="1:19" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="J5" s="9">
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="8">
         <v>39203</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="8">
         <v>39234</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="8">
         <v>39241</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>39203</v>
       </c>
       <c r="B6">
@@ -640,23 +6597,27 @@
       <c r="C6">
         <v>39</v>
       </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="J6">
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>39</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>39234</v>
       </c>
       <c r="B7">
@@ -665,282 +6626,437 @@
       <c r="C7">
         <v>44</v>
       </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>44</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>39325</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>47</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>39241</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>46</v>
       </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>46</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>39248</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>65</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>39318</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>49</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>39255</v>
-      </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>77</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>39311</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>52</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="R11">
+        <v>120</v>
+      </c>
+      <c r="S11">
+        <f>IF(R11&gt;100,R11*90%,R11)</f>
+        <v>108</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>39326</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>44.5</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="R12">
+        <v>150</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S16" si="0">IF(R12&gt;100,R12*90%,R12)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>39262</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>55</v>
       </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>55</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="5">
+        <v>45292</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>39269</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>39276</v>
-      </c>
-      <c r="B13">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>66</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="5">
-        <v>45292</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>39283</v>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>39304</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>89</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>49</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>99</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>39248</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>65</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="5"/>
+      <c r="M15" t="s">
         <v>13</v>
       </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>39276</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>66</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="5"/>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>39269</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>67</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>39255</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>77</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>39283</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>89</v>
+      </c>
+      <c r="F19">
+        <f>SUMIF(D6:D21,"&gt;50")</f>
+        <v>671</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>39290</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>101</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D20">
+        <v>101</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>101</v>
+      </c>
+      <c r="F20">
+        <f>SUM(D6:D21)</f>
+        <v>980</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>39297</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>99</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(Table1[[#This Row],[Puikkoja kpl]],Table1[[#This Row],[Tötteröitä kpl]])</f>
+        <v>99</v>
+      </c>
+      <c r="J21" s="5">
+        <f ca="1">NOW()</f>
+        <v>45646.453370833333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(Table1[Lämpötila C°],20)</f>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f>SUBTOTAL(109,Table1[Tötteröitä kpl])</f>
+        <v>980</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f>CORREL($B$6:$B$21,C6:C21)</f>
+        <v>0.91176022378458244</v>
+      </c>
+      <c r="D23">
+        <f>CORREL($B$6:$B$21,D6:D21)</f>
+        <v>0.8829597225627458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="5"/>
-      <c r="L15" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>39297</v>
-      </c>
-      <c r="B16">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>99</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="5"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>1.2564599999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>39304</v>
-      </c>
-      <c r="B17">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>39311</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>39318</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>39325</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>9</v>
+      <c r="N27">
+        <f>INT(N25)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B20">
+  <conditionalFormatting sqref="B6:B21">
     <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -949,7 +7065,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:L6">
+  <conditionalFormatting sqref="K6:M6">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -960,6 +7076,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
